--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/metrics/Trial_443__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/metrics/Trial_443__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5359,7 +5359,7 @@
                   <c:v>353.0283203125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362.6497802734375</c:v>
+                  <c:v>362.6497497558594</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>358.7837219238281</c:v>
@@ -5500,7 +5500,7 @@
                   <c:v>357.6712036132812</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>355.714111328125</c:v>
+                  <c:v>355.7141418457031</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>354.9970397949219</c:v>
@@ -5530,7 +5530,7 @@
                   <c:v>350.167724609375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>354.4951171875</c:v>
+                  <c:v>354.4951477050781</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>341.1459655761719</c:v>
@@ -5539,7 +5539,7 @@
                   <c:v>350.2779846191406</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>363.13916015625</c:v>
+                  <c:v>363.1391906738281</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>354.73388671875</c:v>
@@ -5557,7 +5557,7 @@
                   <c:v>352.6501159667969</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>353.25732421875</c:v>
+                  <c:v>353.2572937011719</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>358.8115539550781</c:v>
@@ -5581,7 +5581,7 @@
                   <c:v>347.6809387207031</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>360.1513977050781</c:v>
+                  <c:v>360.1514282226562</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>359.5577087402344</c:v>
@@ -5599,7 +5599,7 @@
                   <c:v>328.5856018066406</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>343.7102355957031</c:v>
+                  <c:v>343.7102661132812</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>356.6861572265625</c:v>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6338,13 +6350,19 @@
         <v>353.0283203125</v>
       </c>
       <c r="G3">
+        <v>385</v>
+      </c>
+      <c r="H3">
+        <v>385</v>
+      </c>
+      <c r="R3">
         <v>373</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6361,16 +6379,22 @@
         <v>339.681</v>
       </c>
       <c r="F4">
-        <v>362.6497802734375</v>
+        <v>362.6497497558594</v>
       </c>
       <c r="G4">
+        <v>385</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>373</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>358.7837219238281</v>
       </c>
       <c r="G5">
+        <v>385</v>
+      </c>
+      <c r="H5">
+        <v>385</v>
+      </c>
+      <c r="R5">
         <v>373</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>359.3526611328125</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>385</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>373</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6442,13 +6478,19 @@
         <v>354.5657958984375</v>
       </c>
       <c r="G7">
+        <v>385</v>
+      </c>
+      <c r="H7">
+        <v>385</v>
+      </c>
+      <c r="R7">
         <v>373</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>352.8748168945312</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>358.454345703125</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>339.1181640625</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>358.3876037597656</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>359.6861267089844</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>359.5485229492188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>360.7462463378906</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>355.0361938476562</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -7325,7 +7367,7 @@
         <v>356.095</v>
       </c>
       <c r="F51">
-        <v>355.714111328125</v>
+        <v>355.7141418457031</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7525,7 +7567,7 @@
         <v>360.486</v>
       </c>
       <c r="F61">
-        <v>354.4951171875</v>
+        <v>354.4951477050781</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7585,7 +7627,7 @@
         <v>357.167</v>
       </c>
       <c r="F64">
-        <v>363.13916015625</v>
+        <v>363.1391906738281</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7705,7 +7747,7 @@
         <v>338.225</v>
       </c>
       <c r="F70">
-        <v>353.25732421875</v>
+        <v>353.2572937011719</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7865,7 +7907,7 @@
         <v>357.552</v>
       </c>
       <c r="F78">
-        <v>360.1513977050781</v>
+        <v>360.1514282226562</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7985,7 +8027,7 @@
         <v>339.558</v>
       </c>
       <c r="F84">
-        <v>343.7102355957031</v>
+        <v>343.7102661132812</v>
       </c>
     </row>
     <row r="85" spans="1:6">
